--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Ptprc</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="H2">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="I2">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="J2">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N2">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O2">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P2">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q2">
-        <v>2.243908851816777</v>
+        <v>0.103528197208</v>
       </c>
       <c r="R2">
-        <v>20.195179666351</v>
+        <v>0.931753774872</v>
       </c>
       <c r="S2">
-        <v>0.0002370572903283445</v>
+        <v>5.726369303493941E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002371313583693735</v>
+        <v>5.7637908619387E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="H3">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="I3">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="J3">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.069543</v>
       </c>
       <c r="O3">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P3">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q3">
-        <v>3.169134460991444</v>
+        <v>0.02161570170622222</v>
       </c>
       <c r="R3">
-        <v>28.522210148923</v>
+        <v>0.194541315356</v>
       </c>
       <c r="S3">
-        <v>0.0003348025600061912</v>
+        <v>1.195611379915226E-06</v>
       </c>
       <c r="T3">
-        <v>0.0003349071683467185</v>
+        <v>1.203424644963189E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="H4">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="I4">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="J4">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N4">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O4">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P4">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q4">
-        <v>3054.536756977771</v>
+        <v>29.58644111915289</v>
       </c>
       <c r="R4">
-        <v>27490.83081279994</v>
+        <v>266.277970072376</v>
       </c>
       <c r="S4">
-        <v>0.3226959090745654</v>
+        <v>0.001636490277947737</v>
       </c>
       <c r="T4">
-        <v>0.3227967347180211</v>
+        <v>0.001647184666195302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="H5">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="I5">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="J5">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N5">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O5">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P5">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q5">
-        <v>5.064033262544166</v>
+        <v>0.365142187564</v>
       </c>
       <c r="R5">
-        <v>30.384199575265</v>
+        <v>2.190853125384</v>
       </c>
       <c r="S5">
-        <v>0.0005349887551713031</v>
+        <v>2.019680696338391E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003567706075055972</v>
+        <v>1.355252810826859E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="H6">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="I6">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="J6">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N6">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O6">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P6">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q6">
-        <v>2339.211208233856</v>
+        <v>21.37752722844622</v>
       </c>
       <c r="R6">
-        <v>21052.9008741047</v>
+        <v>192.397745056016</v>
       </c>
       <c r="S6">
-        <v>0.2471254882214305</v>
+        <v>0.001182437432573402</v>
       </c>
       <c r="T6">
-        <v>0.247202702049259</v>
+        <v>0.001190164606485032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="H7">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="I7">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="J7">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N7">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O7">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P7">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q7">
-        <v>1.686372874345889</v>
+        <v>11.030284196866</v>
       </c>
       <c r="R7">
-        <v>15.177355869113</v>
+        <v>99.27255777179398</v>
       </c>
       <c r="S7">
-        <v>0.0001781565163629474</v>
+        <v>0.0006101089610093866</v>
       </c>
       <c r="T7">
-        <v>0.0001782121809837033</v>
+        <v>0.0006140959948404311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="H8">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="I8">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="J8">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>1.069543</v>
       </c>
       <c r="O8">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P8">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q8">
-        <v>2.381710997683222</v>
+        <v>2.303018301915221</v>
       </c>
       <c r="R8">
-        <v>21.435398979149</v>
+        <v>20.727164717237</v>
       </c>
       <c r="S8">
-        <v>0.0002516153697592812</v>
+        <v>0.0001273849411573931</v>
       </c>
       <c r="T8">
-        <v>0.0002516939864409493</v>
+        <v>0.0001282173958538785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="H9">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="I9">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="J9">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N9">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O9">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P9">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q9">
-        <v>2295.586973815448</v>
+        <v>3152.250910565267</v>
       </c>
       <c r="R9">
-        <v>20660.28276433903</v>
+        <v>28370.2581950874</v>
       </c>
       <c r="S9">
-        <v>0.2425168149254973</v>
+        <v>0.1743578400665602</v>
       </c>
       <c r="T9">
-        <v>0.2425925887832564</v>
+        <v>0.1754972604840264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="H10">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="I10">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="J10">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N10">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O10">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P10">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q10">
-        <v>3.805791096115833</v>
+        <v>38.903624420353</v>
       </c>
       <c r="R10">
-        <v>22.834746576695</v>
+        <v>233.421746522118</v>
       </c>
       <c r="S10">
-        <v>0.0004020620196183558</v>
+        <v>0.00215184391000051</v>
       </c>
       <c r="T10">
-        <v>0.0002681250953550182</v>
+        <v>0.00144393740692575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.459819666666665</v>
+      </c>
+      <c r="H11">
+        <v>19.379459</v>
+      </c>
+      <c r="I11">
+        <v>0.303228517050442</v>
+      </c>
+      <c r="J11">
+        <v>0.3044881326758133</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>352.5860493333333</v>
+      </c>
+      <c r="N11">
+        <v>1057.758148</v>
+      </c>
+      <c r="O11">
+        <v>0.415466659920899</v>
+      </c>
+      <c r="P11">
+        <v>0.4164517686775497</v>
+      </c>
+      <c r="Q11">
+        <v>2277.642295675769</v>
+      </c>
+      <c r="R11">
+        <v>20498.78066108193</v>
+      </c>
+      <c r="S11">
+        <v>0.1259813391717145</v>
+      </c>
+      <c r="T11">
+        <v>0.1268046213941669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.2643865</v>
+      </c>
+      <c r="H12">
+        <v>0.528773</v>
+      </c>
+      <c r="I12">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="J12">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.707522</v>
+      </c>
+      <c r="N12">
+        <v>5.122566</v>
+      </c>
+      <c r="O12">
+        <v>0.002012043481081613</v>
+      </c>
+      <c r="P12">
+        <v>0.002016814216842583</v>
+      </c>
+      <c r="Q12">
+        <v>0.4514457652530001</v>
+      </c>
+      <c r="R12">
+        <v>2.708674591518</v>
+      </c>
+      <c r="S12">
+        <v>2.49704451739197E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.675575058518194E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2643865</v>
+      </c>
+      <c r="H13">
+        <v>0.528773</v>
+      </c>
+      <c r="I13">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="J13">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3565143333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.069543</v>
+      </c>
+      <c r="O13">
+        <v>0.000420095518708099</v>
+      </c>
+      <c r="P13">
+        <v>0.000421091602904573</v>
+      </c>
+      <c r="Q13">
+        <v>0.09425757678983333</v>
+      </c>
+      <c r="R13">
+        <v>0.565545460739</v>
+      </c>
+      <c r="S13">
+        <v>5.213591165570069E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.498441161739496E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2643865</v>
+      </c>
+      <c r="H14">
+        <v>0.528773</v>
+      </c>
+      <c r="I14">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="J14">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>487.9781593333334</v>
+      </c>
+      <c r="N14">
+        <v>1463.934478</v>
+      </c>
+      <c r="O14">
+        <v>0.5750047580041945</v>
+      </c>
+      <c r="P14">
+        <v>0.5763681459167976</v>
+      </c>
+      <c r="Q14">
+        <v>129.0148376225823</v>
+      </c>
+      <c r="R14">
+        <v>774.0890257354941</v>
+      </c>
+      <c r="S14">
+        <v>0.007136090705538936</v>
+      </c>
+      <c r="T14">
+        <v>0.004788483152079742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2643865</v>
+      </c>
+      <c r="H15">
+        <v>0.528773</v>
+      </c>
+      <c r="I15">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="J15">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.022401</v>
+      </c>
+      <c r="N15">
+        <v>12.044802</v>
+      </c>
+      <c r="O15">
+        <v>0.007096443075116684</v>
+      </c>
+      <c r="P15">
+        <v>0.004742179585905576</v>
+      </c>
+      <c r="Q15">
+        <v>1.5922415219865</v>
+      </c>
+      <c r="R15">
+        <v>6.368966087946001</v>
+      </c>
+      <c r="S15">
+        <v>8.807033466383404E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.939816454485907E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2643865</v>
+      </c>
+      <c r="H16">
+        <v>0.528773</v>
+      </c>
+      <c r="I16">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="J16">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>352.5860493333333</v>
+      </c>
+      <c r="N16">
+        <v>1057.758148</v>
+      </c>
+      <c r="O16">
+        <v>0.415466659920899</v>
+      </c>
+      <c r="P16">
+        <v>0.4164517686775497</v>
+      </c>
+      <c r="Q16">
+        <v>93.21899153206732</v>
+      </c>
+      <c r="R16">
+        <v>559.313949192404</v>
+      </c>
+      <c r="S16">
+        <v>0.0051561447606338</v>
+      </c>
+      <c r="T16">
+        <v>0.003459893285383138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="H17">
+        <v>43.5559</v>
+      </c>
+      <c r="I17">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="J17">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.707522</v>
+      </c>
+      <c r="N17">
+        <v>5.122566</v>
+      </c>
+      <c r="O17">
+        <v>0.002012043481081613</v>
+      </c>
+      <c r="P17">
+        <v>0.002016814216842583</v>
+      </c>
+      <c r="Q17">
+        <v>24.7908858266</v>
+      </c>
+      <c r="R17">
+        <v>223.1179724394</v>
+      </c>
+      <c r="S17">
+        <v>0.001371237705594813</v>
+      </c>
+      <c r="T17">
+        <v>0.001380198680555032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="H18">
+        <v>43.5559</v>
+      </c>
+      <c r="I18">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="J18">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3565143333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.069543</v>
+      </c>
+      <c r="O18">
+        <v>0.000420095518708099</v>
+      </c>
+      <c r="P18">
+        <v>0.000421091602904573</v>
+      </c>
+      <c r="Q18">
+        <v>5.176100883744445</v>
+      </c>
+      <c r="R18">
+        <v>46.5849079537</v>
+      </c>
+      <c r="S18">
+        <v>0.0002863013750052207</v>
+      </c>
+      <c r="T18">
+        <v>0.0002881723412439918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.680547666666667</v>
-      </c>
-      <c r="H11">
-        <v>20.041643</v>
-      </c>
-      <c r="I11">
-        <v>0.4290717540984982</v>
-      </c>
-      <c r="J11">
-        <v>0.4290717540984982</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>263.1514486666667</v>
-      </c>
-      <c r="N11">
-        <v>789.454346</v>
-      </c>
-      <c r="O11">
-        <v>0.432848593488691</v>
-      </c>
-      <c r="P11">
-        <v>0.4329838361017211</v>
-      </c>
-      <c r="Q11">
-        <v>1757.995796370053</v>
-      </c>
-      <c r="R11">
-        <v>15821.96216733048</v>
-      </c>
-      <c r="S11">
-        <v>0.1857231052672604</v>
-      </c>
-      <c r="T11">
-        <v>0.1857811340524622</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="H19">
+        <v>43.5559</v>
+      </c>
+      <c r="I19">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="J19">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>487.9781593333334</v>
+      </c>
+      <c r="N19">
+        <v>1463.934478</v>
+      </c>
+      <c r="O19">
+        <v>0.5750047580041945</v>
+      </c>
+      <c r="P19">
+        <v>0.5763681459167976</v>
+      </c>
+      <c r="Q19">
+        <v>7084.775970035579</v>
+      </c>
+      <c r="R19">
+        <v>63762.98373032021</v>
+      </c>
+      <c r="S19">
+        <v>0.3918743369541477</v>
+      </c>
+      <c r="T19">
+        <v>0.3944352176144962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="H20">
+        <v>43.5559</v>
+      </c>
+      <c r="I20">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="J20">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.022401</v>
+      </c>
+      <c r="N20">
+        <v>12.044802</v>
+      </c>
+      <c r="O20">
+        <v>0.007096443075116684</v>
+      </c>
+      <c r="P20">
+        <v>0.004742179585905576</v>
+      </c>
+      <c r="Q20">
+        <v>87.4370319053</v>
+      </c>
+      <c r="R20">
+        <v>524.6221914318</v>
+      </c>
+      <c r="S20">
+        <v>0.004836332023488956</v>
+      </c>
+      <c r="T20">
+        <v>0.003245291486326698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="H21">
+        <v>43.5559</v>
+      </c>
+      <c r="I21">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="J21">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>352.5860493333333</v>
+      </c>
+      <c r="N21">
+        <v>1057.758148</v>
+      </c>
+      <c r="O21">
+        <v>0.415466659920899</v>
+      </c>
+      <c r="P21">
+        <v>0.4164517686775497</v>
+      </c>
+      <c r="Q21">
+        <v>5119.067568719243</v>
+      </c>
+      <c r="R21">
+        <v>46071.6081184732</v>
+      </c>
+      <c r="S21">
+        <v>0.2831467385559773</v>
+      </c>
+      <c r="T21">
+        <v>0.2849970893915146</v>
       </c>
     </row>
   </sheetData>
